--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -448,7 +448,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>45.83</v>
+        <v>46.16</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>46.29</v>
+        <v>45.23</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>45.98</v>
+        <v>45.65</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>45.44</v>
+        <v>45.37</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>46.11</v>
+        <v>46.32</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>45.79</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +496,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>46.36</v>
+        <v>46.95</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>46.4</v>
+        <v>45.78</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +512,7 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>45.3</v>
+        <v>45.79</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>45.45</v>
+        <v>45.56</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +528,7 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>45.72</v>
+        <v>45.24</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +536,7 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>45.67</v>
+        <v>45.65</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>45.08</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +552,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>45.33</v>
+        <v>46.02</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +560,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>45.47</v>
+        <v>45.97</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +568,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>45.28</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +576,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>46.55</v>
+        <v>46.35</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +584,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>45.53</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +592,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>45.71</v>
+        <v>46.33</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>46.78</v>
+        <v>45.48</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +608,7 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>46.01</v>
+        <v>46.19</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +616,7 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>45.98</v>
+        <v>45.49</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>46.28</v>
+        <v>45.21</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +632,7 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>46.1</v>
+        <v>45.41</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +640,7 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>45.2</v>
+        <v>46.37</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>46.86</v>
+        <v>46.72</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +656,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>45.72</v>
+        <v>45.84</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +664,7 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>45.94</v>
+        <v>46.92</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +672,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>46.18</v>
+        <v>46.11</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +680,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>45.66</v>
+        <v>45.26</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +688,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>46.7</v>
+        <v>46.85</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +696,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>45.73</v>
+        <v>46.19</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +704,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>46.05</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +712,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>45.17</v>
+        <v>46.81</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +720,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>46.69</v>
+        <v>46.62</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +728,7 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>45.61</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>46.73</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +744,7 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>45.8</v>
+        <v>45.46</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +752,7 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>45.17</v>
+        <v>45.21</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +760,7 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>45.59</v>
+        <v>45.39</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +768,7 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>45.02</v>
+        <v>45.71</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +776,7 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>46.66</v>
+        <v>45.52</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +784,7 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>45.83</v>
+        <v>46.08</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +792,7 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>46.59</v>
+        <v>46.55</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +800,7 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>45.1</v>
+        <v>46.32</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +808,7 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>46</v>
+        <v>46.74</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +816,7 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>46.59</v>
+        <v>46.67</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +824,7 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>46.69</v>
+        <v>45.39</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +832,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>46.32</v>
+        <v>46.41</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +840,7 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>46.43</v>
+        <v>46.47</v>
       </c>
     </row>
   </sheetData>
